--- a/Transformer/result/daqingyoutian_result_GR.xlsx
+++ b/Transformer/result/daqingyoutian_result_GR.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>122.1567535400391</v>
+        <v>125.3654022216797</v>
       </c>
       <c r="B2" t="n">
         <v>122.945</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118.1865386962891</v>
+        <v>122.9142456054688</v>
       </c>
       <c r="B3" t="n">
         <v>122.061</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>115.5167846679688</v>
+        <v>120.8131408691406</v>
       </c>
       <c r="B4" t="n">
         <v>122.061</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>114.3353729248047</v>
+        <v>118.8055267333984</v>
       </c>
       <c r="B5" t="n">
         <v>122.552</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>113.9846038818359</v>
+        <v>117.8190002441406</v>
       </c>
       <c r="B6" t="n">
         <v>121.668</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>113.7461700439453</v>
+        <v>117.0847549438477</v>
       </c>
       <c r="B7" t="n">
         <v>121.078</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>113.0839691162109</v>
+        <v>116.7032623291016</v>
       </c>
       <c r="B8" t="n">
         <v>119.309</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111.8207702636719</v>
+        <v>115.4802856445312</v>
       </c>
       <c r="B9" t="n">
         <v>118.424</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110.5382995605469</v>
+        <v>113.4408416748047</v>
       </c>
       <c r="B10" t="n">
         <v>117.343</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109.0522918701172</v>
+        <v>111.5152740478516</v>
       </c>
       <c r="B11" t="n">
         <v>115.083</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107.4088592529297</v>
+        <v>109.3982696533203</v>
       </c>
       <c r="B12" t="n">
         <v>111.742</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105.3027648925781</v>
+        <v>106.9214782714844</v>
       </c>
       <c r="B13" t="n">
         <v>107.712</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103.2315521240234</v>
+        <v>104.963623046875</v>
       </c>
       <c r="B14" t="n">
         <v>104.666</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101.3712539672852</v>
+        <v>104.1471710205078</v>
       </c>
       <c r="B15" t="n">
         <v>102.798</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100.0128631591797</v>
+        <v>104.0684356689453</v>
       </c>
       <c r="B16" t="n">
         <v>103.191</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99.39359283447266</v>
+        <v>104.5693817138672</v>
       </c>
       <c r="B17" t="n">
         <v>104.076</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99.51418304443359</v>
+        <v>105.7357330322266</v>
       </c>
       <c r="B18" t="n">
         <v>104.666</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100.265380859375</v>
+        <v>107.493408203125</v>
       </c>
       <c r="B19" t="n">
         <v>105.255</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101.5491943359375</v>
+        <v>108.82861328125</v>
       </c>
       <c r="B20" t="n">
         <v>106.238</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>103.0626831054688</v>
+        <v>109.9645385742188</v>
       </c>
       <c r="B21" t="n">
         <v>107.909</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104.3025360107422</v>
+        <v>111.1522216796875</v>
       </c>
       <c r="B22" t="n">
         <v>110.562</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104.8779754638672</v>
+        <v>111.0309600830078</v>
       </c>
       <c r="B23" t="n">
         <v>112.921</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104.5577774047852</v>
+        <v>111.1691360473633</v>
       </c>
       <c r="B24" t="n">
         <v>113.412</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>103.4095611572266</v>
+        <v>110.6080322265625</v>
       </c>
       <c r="B25" t="n">
         <v>113.609</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>101.6804351806641</v>
+        <v>109.743278503418</v>
       </c>
       <c r="B26" t="n">
         <v>112.626</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99.83393859863281</v>
+        <v>109.2955322265625</v>
       </c>
       <c r="B27" t="n">
         <v>112.528</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>98.2791748046875</v>
+        <v>108.7898559570312</v>
       </c>
       <c r="B28" t="n">
         <v>111.742</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>97.428466796875</v>
+        <v>108.0000762939453</v>
       </c>
       <c r="B29" t="n">
         <v>110.071</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>97.33905792236328</v>
+        <v>107.5288543701172</v>
       </c>
       <c r="B30" t="n">
         <v>108.204</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>97.85990142822266</v>
+        <v>105.5199203491211</v>
       </c>
       <c r="B31" t="n">
         <v>106.336</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>98.68091583251953</v>
+        <v>104.37353515625</v>
       </c>
       <c r="B32" t="n">
         <v>105.648</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99.60145568847656</v>
+        <v>103.3215484619141</v>
       </c>
       <c r="B33" t="n">
         <v>104.469</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>100.4670562744141</v>
+        <v>101.90478515625</v>
       </c>
       <c r="B34" t="n">
         <v>103.781</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>101.099967956543</v>
+        <v>100.4480285644531</v>
       </c>
       <c r="B35" t="n">
         <v>102.405</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>101.4152450561523</v>
+        <v>99.56658935546875</v>
       </c>
       <c r="B36" t="n">
         <v>102.307</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>101.4277496337891</v>
+        <v>99.17046356201172</v>
       </c>
       <c r="B37" t="n">
         <v>102.307</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>101.462890625</v>
+        <v>99.35277557373047</v>
       </c>
       <c r="B38" t="n">
         <v>101.717</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>101.7220687866211</v>
+        <v>100.131591796875</v>
       </c>
       <c r="B39" t="n">
         <v>102.012</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102.1140594482422</v>
+        <v>101.5500946044922</v>
       </c>
       <c r="B40" t="n">
         <v>102.897</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102.4277801513672</v>
+        <v>102.6796875</v>
       </c>
       <c r="B41" t="n">
         <v>103.978</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102.4501647949219</v>
+        <v>102.9770202636719</v>
       </c>
       <c r="B42" t="n">
         <v>104.469</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102.3123931884766</v>
+        <v>103.7085952758789</v>
       </c>
       <c r="B43" t="n">
         <v>104.174</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102.2637481689453</v>
+        <v>103.9413452148438</v>
       </c>
       <c r="B44" t="n">
         <v>103.29</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102.3238372802734</v>
+        <v>103.5747299194336</v>
       </c>
       <c r="B45" t="n">
         <v>103.585</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>102.5961303710938</v>
+        <v>103.5215072631836</v>
       </c>
       <c r="B46" t="n">
         <v>104.862</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>103.2538757324219</v>
+        <v>102.3314361572266</v>
       </c>
       <c r="B47" t="n">
         <v>106.729</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104.3745727539062</v>
+        <v>102.5420761108398</v>
       </c>
       <c r="B48" t="n">
         <v>106.828</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>105.9764251708984</v>
+        <v>102.7161102294922</v>
       </c>
       <c r="B49" t="n">
         <v>106.238</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>108.0671539306641</v>
+        <v>103.4959564208984</v>
       </c>
       <c r="B50" t="n">
         <v>105.648</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110.4877014160156</v>
+        <v>104.7310943603516</v>
       </c>
       <c r="B51" t="n">
         <v>105.648</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112.8218231201172</v>
+        <v>106.1448669433594</v>
       </c>
       <c r="B52" t="n">
         <v>106.828</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>114.7837829589844</v>
+        <v>107.3690643310547</v>
       </c>
       <c r="B53" t="n">
         <v>107.614</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>116.2573699951172</v>
+        <v>109.4140625</v>
       </c>
       <c r="B54" t="n">
         <v>108.597</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>116.8262634277344</v>
+        <v>111.0014801025391</v>
       </c>
       <c r="B55" t="n">
         <v>109.973</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>116.5476989746094</v>
+        <v>112.9668273925781</v>
       </c>
       <c r="B56" t="n">
         <v>111.25</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>115.6957168579102</v>
+        <v>114.9913787841797</v>
       </c>
       <c r="B57" t="n">
         <v>114.1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>114.3287658691406</v>
+        <v>117.3083038330078</v>
       </c>
       <c r="B58" t="n">
         <v>117.049</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112.3421173095703</v>
+        <v>119.3163223266602</v>
       </c>
       <c r="B59" t="n">
         <v>119.604</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>110.0844421386719</v>
+        <v>121.4495544433594</v>
       </c>
       <c r="B60" t="n">
         <v>121.176</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>107.736457824707</v>
+        <v>122.7404174804688</v>
       </c>
       <c r="B61" t="n">
         <v>121.962</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>105.4346084594727</v>
+        <v>123.5116271972656</v>
       </c>
       <c r="B62" t="n">
         <v>121.864</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>103.5677871704102</v>
+        <v>122.6602783203125</v>
       </c>
       <c r="B63" t="n">
         <v>122.159</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>102.3929748535156</v>
+        <v>120.7212066650391</v>
       </c>
       <c r="B64" t="n">
         <v>121.275</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>101.7626800537109</v>
+        <v>118.3341979980469</v>
       </c>
       <c r="B65" t="n">
         <v>119.604</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>101.4648590087891</v>
+        <v>115.7822875976562</v>
       </c>
       <c r="B66" t="n">
         <v>115.869</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>101.4006423950195</v>
+        <v>112.7865295410156</v>
       </c>
       <c r="B67" t="n">
         <v>112.43</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>101.4408493041992</v>
+        <v>108.5213470458984</v>
       </c>
       <c r="B68" t="n">
         <v>109.088</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>101.4444274902344</v>
+        <v>104.4031982421875</v>
       </c>
       <c r="B69" t="n">
         <v>105.747</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>101.33740234375</v>
+        <v>100.9485397338867</v>
       </c>
       <c r="B70" t="n">
         <v>101.816</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>101.1272354125977</v>
+        <v>97.72357177734375</v>
       </c>
       <c r="B71" t="n">
         <v>97.295</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>100.734130859375</v>
+        <v>94.86117553710938</v>
       </c>
       <c r="B72" t="n">
         <v>93.953</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>100.1118392944336</v>
+        <v>92.51200866699219</v>
       </c>
       <c r="B73" t="n">
         <v>92.479</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>99.27591705322266</v>
+        <v>91.14022827148438</v>
       </c>
       <c r="B74" t="n">
         <v>91.496</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>98.35539245605469</v>
+        <v>90.6412353515625</v>
       </c>
       <c r="B75" t="n">
         <v>89.82599999999999</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>97.68355560302734</v>
+        <v>90.24456787109375</v>
       </c>
       <c r="B76" t="n">
         <v>88.45</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>97.55514526367188</v>
+        <v>90.0968017578125</v>
       </c>
       <c r="B77" t="n">
         <v>88.646</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>98.0693359375</v>
+        <v>90.60054016113281</v>
       </c>
       <c r="B78" t="n">
         <v>89.53100000000001</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>99.02093505859375</v>
+        <v>90.80047607421875</v>
       </c>
       <c r="B79" t="n">
         <v>90.41500000000001</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>100.1468658447266</v>
+        <v>91.32965850830078</v>
       </c>
       <c r="B80" t="n">
         <v>90.514</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>101.2430801391602</v>
+        <v>90.85878753662109</v>
       </c>
       <c r="B81" t="n">
         <v>90.02200000000001</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>102.3767852783203</v>
+        <v>90.22592163085938</v>
       </c>
       <c r="B82" t="n">
         <v>90.21899999999999</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>103.5225372314453</v>
+        <v>89.46871185302734</v>
       </c>
       <c r="B83" t="n">
         <v>90.70999999999999</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>104.6961364746094</v>
+        <v>88.89118194580078</v>
       </c>
       <c r="B84" t="n">
         <v>91.10299999999999</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>105.8063659667969</v>
+        <v>89.24271392822266</v>
       </c>
       <c r="B85" t="n">
         <v>92.184</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>106.6013946533203</v>
+        <v>89.33307647705078</v>
       </c>
       <c r="B86" t="n">
         <v>92.184</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>106.859375</v>
+        <v>89.85771942138672</v>
       </c>
       <c r="B87" t="n">
         <v>91.398</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>106.5250778198242</v>
+        <v>90.60221862792969</v>
       </c>
       <c r="B88" t="n">
         <v>90.41500000000001</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>105.7446823120117</v>
+        <v>90.91226959228516</v>
       </c>
       <c r="B89" t="n">
         <v>90.21899999999999</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>104.5887756347656</v>
+        <v>91.21127319335938</v>
       </c>
       <c r="B90" t="n">
         <v>90.80800000000001</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>102.9524536132812</v>
+        <v>91.61015319824219</v>
       </c>
       <c r="B91" t="n">
         <v>90.907</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>100.9561767578125</v>
+        <v>91.88540649414062</v>
       </c>
       <c r="B92" t="n">
         <v>90.41500000000001</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>98.83628845214844</v>
+        <v>91.54564666748047</v>
       </c>
       <c r="B93" t="n">
         <v>89.13800000000001</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>96.96221923828125</v>
+        <v>92.09002685546875</v>
       </c>
       <c r="B94" t="n">
         <v>88.745</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>95.73639678955078</v>
+        <v>93.20148468017578</v>
       </c>
       <c r="B95" t="n">
         <v>90.121</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95.24757385253906</v>
+        <v>95.41673278808594</v>
       </c>
       <c r="B96" t="n">
         <v>94.05200000000001</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>95.3321533203125</v>
+        <v>97.70973968505859</v>
       </c>
       <c r="B97" t="n">
         <v>99.45699999999999</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>95.82715606689453</v>
+        <v>100.3160858154297</v>
       </c>
       <c r="B98" t="n">
         <v>105.157</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>96.73394775390625</v>
+        <v>104.1654968261719</v>
       </c>
       <c r="B99" t="n">
         <v>108.498</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>97.97647094726562</v>
+        <v>108.6719741821289</v>
       </c>
       <c r="B100" t="n">
         <v>111.742</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>99.16329956054688</v>
+        <v>113.3992462158203</v>
       </c>
       <c r="B101" t="n">
         <v>114.788</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>100.1125793457031</v>
+        <v>117.4350433349609</v>
       </c>
       <c r="B102" t="n">
         <v>119.211</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>101.0859069824219</v>
+        <v>120.1487197875977</v>
       </c>
       <c r="B103" t="n">
         <v>123.24</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>102.2625732421875</v>
+        <v>121.0269012451172</v>
       </c>
       <c r="B104" t="n">
         <v>125.009</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>103.5944671630859</v>
+        <v>121.6756057739258</v>
       </c>
       <c r="B105" t="n">
         <v>124.223</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>104.8582763671875</v>
+        <v>120.6573486328125</v>
       </c>
       <c r="B106" t="n">
         <v>122.257</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>105.9082183837891</v>
+        <v>118.3309860229492</v>
       </c>
       <c r="B107" t="n">
         <v>119.309</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>106.7153625488281</v>
+        <v>114.013671875</v>
       </c>
       <c r="B108" t="n">
         <v>116.95</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>107.2977294921875</v>
+        <v>109.2146224975586</v>
       </c>
       <c r="B109" t="n">
         <v>112.921</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>107.6625823974609</v>
+        <v>104.8787231445312</v>
       </c>
       <c r="B110" t="n">
         <v>108.695</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>107.7427749633789</v>
+        <v>100.7951812744141</v>
       </c>
       <c r="B111" t="n">
         <v>103.978</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>107.5231323242188</v>
+        <v>97.70281982421875</v>
       </c>
       <c r="B112" t="n">
         <v>100.243</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>107.2171173095703</v>
+        <v>95.62449645996094</v>
       </c>
       <c r="B113" t="n">
         <v>97.884</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>107.0753173828125</v>
+        <v>95.19957733154297</v>
       </c>
       <c r="B114" t="n">
         <v>96.705</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>107.0865325927734</v>
+        <v>95.64437866210938</v>
       </c>
       <c r="B115" t="n">
         <v>97.197</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>107.221435546875</v>
+        <v>96.17988586425781</v>
       </c>
       <c r="B116" t="n">
         <v>97.884</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>107.4109344482422</v>
+        <v>97.2999267578125</v>
       </c>
       <c r="B117" t="n">
         <v>99.26000000000001</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>107.5049057006836</v>
+        <v>97.97411346435547</v>
       </c>
       <c r="B118" t="n">
         <v>99.752</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>107.4908828735352</v>
+        <v>98.71623992919922</v>
       </c>
       <c r="B119" t="n">
         <v>100.636</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>107.4650573730469</v>
+        <v>98.77250671386719</v>
       </c>
       <c r="B120" t="n">
         <v>100.931</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>107.5359649658203</v>
+        <v>98.44203186035156</v>
       </c>
       <c r="B121" t="n">
         <v>101.619</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>107.6064758300781</v>
+        <v>97.94074249267578</v>
       </c>
       <c r="B122" t="n">
         <v>101.521</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>107.6845016479492</v>
+        <v>96.62709808349609</v>
       </c>
       <c r="B123" t="n">
         <v>100.636</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>107.8494491577148</v>
+        <v>95.79192352294922</v>
       </c>
       <c r="B124" t="n">
         <v>99.16200000000001</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>107.8866500854492</v>
+        <v>95.40786743164062</v>
       </c>
       <c r="B125" t="n">
         <v>97.59</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>107.4580535888672</v>
+        <v>95.54841613769531</v>
       </c>
       <c r="B126" t="n">
         <v>96.803</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>106.4051055908203</v>
+        <v>96.08699798583984</v>
       </c>
       <c r="B127" t="n">
         <v>96.017</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>104.8354797363281</v>
+        <v>96.02298736572266</v>
       </c>
       <c r="B128" t="n">
         <v>95.32899999999999</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>102.7826461791992</v>
+        <v>95.99470520019531</v>
       </c>
       <c r="B129" t="n">
         <v>95.133</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>100.6062698364258</v>
+        <v>96.01554107666016</v>
       </c>
       <c r="B130" t="n">
         <v>94.83799999999999</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>98.67871856689453</v>
+        <v>95.39627075195312</v>
       </c>
       <c r="B131" t="n">
         <v>94.346</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>97.32895660400391</v>
+        <v>94.60079956054688</v>
       </c>
       <c r="B132" t="n">
         <v>94.15000000000001</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>96.99342346191406</v>
+        <v>94.62998962402344</v>
       </c>
       <c r="B133" t="n">
         <v>94.64100000000001</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>98.10897064208984</v>
+        <v>94.20689392089844</v>
       </c>
       <c r="B134" t="n">
         <v>96.11499999999999</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>100.6263427734375</v>
+        <v>94.50301361083984</v>
       </c>
       <c r="B135" t="n">
         <v>96.509</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>103.8507232666016</v>
+        <v>94.93943023681641</v>
       </c>
       <c r="B136" t="n">
         <v>96.11499999999999</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>106.9902191162109</v>
+        <v>95.27393341064453</v>
       </c>
       <c r="B137" t="n">
         <v>94.54300000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>109.6479110717773</v>
+        <v>95.61020660400391</v>
       </c>
       <c r="B138" t="n">
         <v>93.855</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111.5550003051758</v>
+        <v>96.36813354492188</v>
       </c>
       <c r="B139" t="n">
         <v>93.75700000000001</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112.2625122070312</v>
+        <v>96.69821166992188</v>
       </c>
       <c r="B140" t="n">
         <v>94.346</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111.6377563476562</v>
+        <v>96.91757202148438</v>
       </c>
       <c r="B141" t="n">
         <v>94.93600000000001</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>109.9591674804688</v>
+        <v>97.88275146484375</v>
       </c>
       <c r="B142" t="n">
         <v>95.526</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>107.5235900878906</v>
+        <v>98.68231201171875</v>
       </c>
       <c r="B143" t="n">
         <v>96.41</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>104.9020919799805</v>
+        <v>99.6893310546875</v>
       </c>
       <c r="B144" t="n">
         <v>98.376</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>102.9299468994141</v>
+        <v>101.5093078613281</v>
       </c>
       <c r="B145" t="n">
         <v>100.636</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>101.82958984375</v>
+        <v>102.4485015869141</v>
       </c>
       <c r="B146" t="n">
         <v>102.897</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>101.1355438232422</v>
+        <v>104.2752532958984</v>
       </c>
       <c r="B147" t="n">
         <v>103.978</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>100.4231338500977</v>
+        <v>105.4786987304688</v>
       </c>
       <c r="B148" t="n">
         <v>104.371</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>99.53346252441406</v>
+        <v>105.9930419921875</v>
       </c>
       <c r="B149" t="n">
         <v>105.059</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>98.55399322509766</v>
+        <v>105.5005645751953</v>
       </c>
       <c r="B150" t="n">
         <v>106.238</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>97.69960021972656</v>
+        <v>105.3532562255859</v>
       </c>
       <c r="B151" t="n">
         <v>106.435</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>97.33341979980469</v>
+        <v>105.7164611816406</v>
       </c>
       <c r="B152" t="n">
         <v>106.729</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>97.59584045410156</v>
+        <v>105.7030868530273</v>
       </c>
       <c r="B153" t="n">
         <v>107.123</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>98.13292694091797</v>
+        <v>105.5314788818359</v>
       </c>
       <c r="B154" t="n">
         <v>107.319</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>98.71520233154297</v>
+        <v>104.4816665649414</v>
       </c>
       <c r="B155" t="n">
         <v>106.729</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>99.44871520996094</v>
+        <v>103.9355316162109</v>
       </c>
       <c r="B156" t="n">
         <v>104.96</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>100.3614807128906</v>
+        <v>102.4672775268555</v>
       </c>
       <c r="B157" t="n">
         <v>103.781</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>101.1010513305664</v>
+        <v>102.0497283935547</v>
       </c>
       <c r="B158" t="n">
         <v>103.093</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>101.3314056396484</v>
+        <v>100.2176513671875</v>
       </c>
       <c r="B159" t="n">
         <v>103.29</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>100.9292297363281</v>
+        <v>99.09188079833984</v>
       </c>
       <c r="B160" t="n">
         <v>102.798</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>100.3204116821289</v>
+        <v>97.792724609375</v>
       </c>
       <c r="B161" t="n">
         <v>101.914</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>100.0163192749023</v>
+        <v>97.08173370361328</v>
       </c>
       <c r="B162" t="n">
         <v>100.931</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>100.3871154785156</v>
+        <v>96.82170104980469</v>
       </c>
       <c r="B163" t="n">
         <v>100.538</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>101.5979919433594</v>
+        <v>96.34493255615234</v>
       </c>
       <c r="B164" t="n">
         <v>101.324</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>103.6459884643555</v>
+        <v>96.24275970458984</v>
       </c>
       <c r="B165" t="n">
         <v>101.619</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>106.2588348388672</v>
+        <v>96.11843872070312</v>
       </c>
       <c r="B166" t="n">
         <v>101.816</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>108.7974395751953</v>
+        <v>96.41146850585938</v>
       </c>
       <c r="B167" t="n">
         <v>100.44</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>110.5663604736328</v>
+        <v>95.97433471679688</v>
       </c>
       <c r="B168" t="n">
         <v>98.27800000000001</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>111.0790634155273</v>
+        <v>95.73709869384766</v>
       </c>
       <c r="B169" t="n">
         <v>96.11499999999999</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>110.3112182617188</v>
+        <v>94.81158447265625</v>
       </c>
       <c r="B170" t="n">
         <v>94.64100000000001</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>108.6459503173828</v>
+        <v>93.87973785400391</v>
       </c>
       <c r="B171" t="n">
         <v>94.346</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>106.5462265014648</v>
+        <v>93.45751953125</v>
       </c>
       <c r="B172" t="n">
         <v>93.855</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>104.3780212402344</v>
+        <v>93.09462738037109</v>
       </c>
       <c r="B173" t="n">
         <v>93.855</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>102.4613876342773</v>
+        <v>93.60748291015625</v>
       </c>
       <c r="B174" t="n">
         <v>93.855</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>101.2068634033203</v>
+        <v>94.73671722412109</v>
       </c>
       <c r="B175" t="n">
         <v>94.05200000000001</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>100.6316604614258</v>
+        <v>96.45773315429688</v>
       </c>
       <c r="B176" t="n">
         <v>94.83799999999999</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>100.3610000610352</v>
+        <v>99.02169799804688</v>
       </c>
       <c r="B177" t="n">
         <v>97.884</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>99.97386169433594</v>
+        <v>102.2332305908203</v>
       </c>
       <c r="B178" t="n">
         <v>102.897</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>99.23329162597656</v>
+        <v>105.8214340209961</v>
       </c>
       <c r="B179" t="n">
         <v>108.4</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>98.12627410888672</v>
+        <v>110.1064147949219</v>
       </c>
       <c r="B180" t="n">
         <v>113.805</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>97.01966857910156</v>
+        <v>114.6168594360352</v>
       </c>
       <c r="B181" t="n">
         <v>117.442</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>96.47263336181641</v>
+        <v>118.9162750244141</v>
       </c>
       <c r="B182" t="n">
         <v>119.997</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>96.770263671875</v>
+        <v>122.7639617919922</v>
       </c>
       <c r="B183" t="n">
         <v>121.962</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>97.84169006347656</v>
+        <v>126.6338958740234</v>
       </c>
       <c r="B184" t="n">
         <v>125.894</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>99.39557647705078</v>
+        <v>128.5326232910156</v>
       </c>
       <c r="B185" t="n">
         <v>129.825</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>101.4375915527344</v>
+        <v>130.7579650878906</v>
       </c>
       <c r="B186" t="n">
         <v>132.773</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>103.9642791748047</v>
+        <v>131.3709869384766</v>
       </c>
       <c r="B187" t="n">
         <v>134.051</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>106.4512786865234</v>
+        <v>131.5710754394531</v>
       </c>
       <c r="B188" t="n">
         <v>134.935</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>108.1383819580078</v>
+        <v>131.4639129638672</v>
       </c>
       <c r="B189" t="n">
         <v>134.64</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>108.4925842285156</v>
+        <v>130.0699462890625</v>
       </c>
       <c r="B190" t="n">
         <v>134.64</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>107.7443237304688</v>
+        <v>128.35791015625</v>
       </c>
       <c r="B191" t="n">
         <v>133.658</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>106.4897155761719</v>
+        <v>126.9124908447266</v>
       </c>
       <c r="B192" t="n">
         <v>131.201</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>105.1283721923828</v>
+        <v>124.9499206542969</v>
       </c>
       <c r="B193" t="n">
         <v>127.073</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>103.9292526245117</v>
+        <v>122.3414154052734</v>
       </c>
       <c r="B194" t="n">
         <v>123.437</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>103.1806945800781</v>
+        <v>119.2855987548828</v>
       </c>
       <c r="B195" t="n">
         <v>119.8</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>103.1924667358398</v>
+        <v>115.893669128418</v>
       </c>
       <c r="B196" t="n">
         <v>117.245</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>103.8939666748047</v>
+        <v>112.8884048461914</v>
       </c>
       <c r="B197" t="n">
         <v>114.297</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>105.1013946533203</v>
+        <v>109.3760299682617</v>
       </c>
       <c r="B198" t="n">
         <v>111.348</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>106.4340438842773</v>
+        <v>105.664665222168</v>
       </c>
       <c r="B199" t="n">
         <v>107.319</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>107.4205322265625</v>
+        <v>102.4373092651367</v>
       </c>
       <c r="B200" t="n">
         <v>105.55</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>107.9057159423828</v>
+        <v>100.4519958496094</v>
       </c>
       <c r="B201" t="n">
         <v>103.683</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>107.9450531005859</v>
+        <v>100.4519958496094</v>
       </c>
       <c r="B202" t="n">
         <v>103.585</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>107.5016632080078</v>
+        <v>98.561279296875</v>
       </c>
       <c r="B203" t="n">
         <v>103.486</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>106.7666320800781</v>
+        <v>97.64399719238281</v>
       </c>
       <c r="B204" t="n">
         <v>105.059</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>105.8907623291016</v>
+        <v>97.54783630371094</v>
       </c>
       <c r="B205" t="n">
         <v>104.764</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>105.0622863769531</v>
+        <v>98.24028015136719</v>
       </c>
       <c r="B206" t="n">
         <v>105.255</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>104.2728958129883</v>
+        <v>99.63803100585938</v>
       </c>
       <c r="B207" t="n">
         <v>106.238</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>103.4210968017578</v>
+        <v>101.3234405517578</v>
       </c>
       <c r="B208" t="n">
         <v>108.302</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>102.5548858642578</v>
+        <v>102.7272262573242</v>
       </c>
       <c r="B209" t="n">
         <v>109.973</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>101.7007598876953</v>
+        <v>103.408935546875</v>
       </c>
       <c r="B210" t="n">
         <v>110.857</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>100.9889831542969</v>
+        <v>103.1078796386719</v>
       </c>
       <c r="B211" t="n">
         <v>111.152</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>100.3283233642578</v>
+        <v>102.0977172851562</v>
       </c>
       <c r="B212" t="n">
         <v>110.661</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>99.61443328857422</v>
+        <v>100.9493026733398</v>
       </c>
       <c r="B213" t="n">
         <v>108.892</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>99.16622924804688</v>
+        <v>100.1404647827148</v>
       </c>
       <c r="B214" t="n">
         <v>108.892</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>99.35144805908203</v>
+        <v>100.0246276855469</v>
       </c>
       <c r="B215" t="n">
         <v>109.776</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>99.92983245849609</v>
+        <v>100.7373962402344</v>
       </c>
       <c r="B216" t="n">
         <v>111.643</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>100.5051116943359</v>
+        <v>101.6472091674805</v>
       </c>
       <c r="B217" t="n">
         <v>114.1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>100.8868789672852</v>
+        <v>101.9484100341797</v>
       </c>
       <c r="B218" t="n">
         <v>117.245</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>100.9640884399414</v>
+        <v>101.3137664794922</v>
       </c>
       <c r="B219" t="n">
         <v>119.8</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>100.6603088378906</v>
+        <v>100.1204071044922</v>
       </c>
       <c r="B220" t="n">
         <v>121.176</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>100.1800842285156</v>
+        <v>98.5755615234375</v>
       </c>
       <c r="B221" t="n">
         <v>121.569</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>99.78364562988281</v>
+        <v>97.00013732910156</v>
       </c>
       <c r="B222" t="n">
         <v>120.98</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>99.63320159912109</v>
+        <v>96.02968597412109</v>
       </c>
       <c r="B223" t="n">
         <v>119.604</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>99.52925109863281</v>
+        <v>95.80335998535156</v>
       </c>
       <c r="B224" t="n">
         <v>115.968</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>99.17189025878906</v>
+        <v>96.2996826171875</v>
       </c>
       <c r="B225" t="n">
         <v>110.759</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>98.2852783203125</v>
+        <v>97.698486328125</v>
       </c>
       <c r="B226" t="n">
         <v>104.862</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>96.94277954101562</v>
+        <v>100.0183410644531</v>
       </c>
       <c r="B227" t="n">
         <v>99.55500000000001</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>95.47999572753906</v>
+        <v>102.4592742919922</v>
       </c>
       <c r="B228" t="n">
         <v>96.902</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>94.38925170898438</v>
+        <v>104.3625869750977</v>
       </c>
       <c r="B229" t="n">
         <v>97.393</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>93.77786254882812</v>
+        <v>105.4855499267578</v>
       </c>
       <c r="B230" t="n">
         <v>99.55500000000001</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>93.38062286376953</v>
+        <v>105.7920303344727</v>
       </c>
       <c r="B231" t="n">
         <v>102.209</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>93.07993316650391</v>
+        <v>105.7157592773438</v>
       </c>
       <c r="B232" t="n">
         <v>103.781</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>92.91735076904297</v>
+        <v>105.7879486083984</v>
       </c>
       <c r="B233" t="n">
         <v>105.452</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>92.86534881591797</v>
+        <v>105.9810562133789</v>
       </c>
       <c r="B234" t="n">
         <v>107.712</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>93.17546081542969</v>
+        <v>106.35107421875</v>
       </c>
       <c r="B235" t="n">
         <v>109.088</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>94.27656555175781</v>
+        <v>106.9864349365234</v>
       </c>
       <c r="B236" t="n">
         <v>109.874</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>96.35930633544922</v>
+        <v>108.1535339355469</v>
       </c>
       <c r="B237" t="n">
         <v>108.892</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>99.11172485351562</v>
+        <v>109.7994232177734</v>
       </c>
       <c r="B238" t="n">
         <v>106.828</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>101.747200012207</v>
+        <v>111.4099731445312</v>
       </c>
       <c r="B239" t="n">
         <v>104.469</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>103.4546737670898</v>
+        <v>112.787353515625</v>
       </c>
       <c r="B240" t="n">
         <v>103.486</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>103.7080841064453</v>
+        <v>113.8294830322266</v>
       </c>
       <c r="B241" t="n">
         <v>104.272</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>102.6699371337891</v>
+        <v>114.2799758911133</v>
       </c>
       <c r="B242" t="n">
         <v>106.336</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>100.9511413574219</v>
+        <v>113.9713592529297</v>
       </c>
       <c r="B243" t="n">
         <v>108.4</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>99.30970001220703</v>
+        <v>112.8919677734375</v>
       </c>
       <c r="B244" t="n">
         <v>109.776</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>98.31557464599609</v>
+        <v>111.0438995361328</v>
       </c>
       <c r="B245" t="n">
         <v>111.152</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>98.14488983154297</v>
+        <v>108.6263885498047</v>
       </c>
       <c r="B246" t="n">
         <v>113.707</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>98.48199462890625</v>
+        <v>105.9774398803711</v>
       </c>
       <c r="B247" t="n">
         <v>115.476</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>99.12570953369141</v>
+        <v>103.403076171875</v>
       </c>
       <c r="B248" t="n">
         <v>114.985</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>99.98361968994141</v>
+        <v>101.3317718505859</v>
       </c>
       <c r="B249" t="n">
         <v>114.493</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>100.7628860473633</v>
+        <v>100.2255020141602</v>
       </c>
       <c r="B250" t="n">
         <v>113.412</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>101.2210464477539</v>
+        <v>100.2801666259766</v>
       </c>
       <c r="B251" t="n">
         <v>112.036</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>101.2253265380859</v>
+        <v>101.3852996826172</v>
       </c>
       <c r="B252" t="n">
         <v>112.135</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>100.9012680053711</v>
+        <v>103.1283340454102</v>
       </c>
       <c r="B253" t="n">
         <v>113.117</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>100.4004974365234</v>
+        <v>104.8862152099609</v>
       </c>
       <c r="B254" t="n">
         <v>114.199</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>99.97491455078125</v>
+        <v>105.9571685791016</v>
       </c>
       <c r="B255" t="n">
         <v>114.199</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>99.98710632324219</v>
+        <v>105.9522094726562</v>
       </c>
       <c r="B256" t="n">
         <v>113.216</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>100.5035247802734</v>
+        <v>104.4934997558594</v>
       </c>
       <c r="B257" t="n">
         <v>113.412</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>101.3207550048828</v>
+        <v>101.5282440185547</v>
       </c>
       <c r="B258" t="n">
         <v>112.135</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>102.4076843261719</v>
+        <v>97.56589508056641</v>
       </c>
       <c r="B259" t="n">
         <v>110.759</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>104.0846557617188</v>
+        <v>93.53546142578125</v>
       </c>
       <c r="B260" t="n">
         <v>107.417</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>106.300048828125</v>
+        <v>90.12480163574219</v>
       </c>
       <c r="B261" t="n">
         <v>104.764</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>109.0391616821289</v>
+        <v>87.84719848632812</v>
       </c>
       <c r="B262" t="n">
         <v>102.602</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>111.8224487304688</v>
+        <v>87.10383605957031</v>
       </c>
       <c r="B263" t="n">
         <v>100.833</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>114.2601928710938</v>
+        <v>87.72378540039062</v>
       </c>
       <c r="B264" t="n">
         <v>100.341</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>115.7848663330078</v>
+        <v>89.18381500244141</v>
       </c>
       <c r="B265" t="n">
         <v>99.84999999999999</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>116.1354370117188</v>
+        <v>91.25502014160156</v>
       </c>
       <c r="B266" t="n">
         <v>99.16200000000001</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>115.4993438720703</v>
+        <v>93.67096710205078</v>
       </c>
       <c r="B267" t="n">
         <v>97.786</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>114.4505462646484</v>
+        <v>95.89657592773438</v>
       </c>
       <c r="B268" t="n">
         <v>96.705</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>113.3854827880859</v>
+        <v>97.71107482910156</v>
       </c>
       <c r="B269" t="n">
         <v>96.509</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>112.3485107421875</v>
+        <v>99.37261962890625</v>
       </c>
       <c r="B270" t="n">
         <v>96.017</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>111.2043762207031</v>
+        <v>101.3715667724609</v>
       </c>
       <c r="B271" t="n">
         <v>95.624</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>110.1458435058594</v>
+        <v>103.877197265625</v>
       </c>
       <c r="B272" t="n">
         <v>95.526</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>109.458740234375</v>
+        <v>106.8852691650391</v>
       </c>
       <c r="B273" t="n">
         <v>96.607</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>108.5655975341797</v>
+        <v>110.4099731445312</v>
       </c>
       <c r="B274" t="n">
         <v>98.867</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>107.0707244873047</v>
+        <v>114.0142211914062</v>
       </c>
       <c r="B275" t="n">
         <v>102.012</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>105.0889739990234</v>
+        <v>116.9456176757812</v>
       </c>
       <c r="B276" t="n">
         <v>106.041</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>102.9645690917969</v>
+        <v>118.7690963745117</v>
       </c>
       <c r="B277" t="n">
         <v>108.597</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>100.7693939208984</v>
+        <v>119.4904022216797</v>
       </c>
       <c r="B278" t="n">
         <v>109.579</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>98.69638061523438</v>
+        <v>119.2412643432617</v>
       </c>
       <c r="B279" t="n">
         <v>109.874</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>97.13388824462891</v>
+        <v>118.0108947753906</v>
       </c>
       <c r="B280" t="n">
         <v>108.892</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>96.25649261474609</v>
+        <v>115.8513412475586</v>
       </c>
       <c r="B281" t="n">
         <v>107.712</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>96.19851684570312</v>
+        <v>112.8772125244141</v>
       </c>
       <c r="B282" t="n">
         <v>105.845</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>97.04079437255859</v>
+        <v>109.3334579467773</v>
       </c>
       <c r="B283" t="n">
         <v>104.567</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>98.59975433349609</v>
+        <v>105.6708679199219</v>
       </c>
       <c r="B284" t="n">
         <v>102.897</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>100.6781005859375</v>
+        <v>102.2796630859375</v>
       </c>
       <c r="B285" t="n">
         <v>102.012</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>102.4107208251953</v>
+        <v>99.38389587402344</v>
       </c>
       <c r="B286" t="n">
         <v>102.11</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>102.8284530639648</v>
+        <v>97.0321044921875</v>
       </c>
       <c r="B287" t="n">
         <v>104.076</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>101.5513000488281</v>
+        <v>95.20574188232422</v>
       </c>
       <c r="B288" t="n">
         <v>107.909</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>98.91535186767578</v>
+        <v>93.85099792480469</v>
       </c>
       <c r="B289" t="n">
         <v>109.973</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>95.83884429931641</v>
+        <v>92.82074737548828</v>
       </c>
       <c r="B290" t="n">
         <v>110.857</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>93.03575134277344</v>
+        <v>92.23417663574219</v>
       </c>
       <c r="B291" t="n">
         <v>110.955</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>90.94548034667969</v>
+        <v>92.30799102783203</v>
       </c>
       <c r="B292" t="n">
         <v>110.464</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>90.00440979003906</v>
+        <v>93.15187835693359</v>
       </c>
       <c r="B293" t="n">
         <v>109.973</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>90.23551177978516</v>
+        <v>94.69953918457031</v>
       </c>
       <c r="B294" t="n">
         <v>110.464</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>91.45054626464844</v>
+        <v>96.732177734375</v>
       </c>
       <c r="B295" t="n">
         <v>111.054</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>93.29618835449219</v>
+        <v>99.03153991699219</v>
       </c>
       <c r="B296" t="n">
         <v>110.267</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>95.26080322265625</v>
+        <v>101.3675994873047</v>
       </c>
       <c r="B297" t="n">
         <v>108.498</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>96.6904296875</v>
+        <v>103.4711608886719</v>
       </c>
       <c r="B298" t="n">
         <v>106.336</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>97.11589050292969</v>
+        <v>105.044548034668</v>
       </c>
       <c r="B299" t="n">
         <v>104.567</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>96.71684265136719</v>
+        <v>105.7219619750977</v>
       </c>
       <c r="B300" t="n">
         <v>102.602</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>95.7529296875</v>
+        <v>105.3226470947266</v>
       </c>
       <c r="B301" t="n">
         <v>101.816</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>94.71453857421875</v>
+        <v>104.1593322753906</v>
       </c>
       <c r="B302" t="n">
         <v>100.636</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>94.42273712158203</v>
+        <v>102.5685272216797</v>
       </c>
       <c r="B303" t="n">
         <v>99.55500000000001</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>95.52044677734375</v>
+        <v>100.6609649658203</v>
       </c>
       <c r="B304" t="n">
         <v>97.393</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>97.93889617919922</v>
+        <v>98.64310455322266</v>
       </c>
       <c r="B305" t="n">
         <v>95.428</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>101.3856582641602</v>
+        <v>96.93746948242188</v>
       </c>
       <c r="B306" t="n">
         <v>95.03400000000001</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>105.3188781738281</v>
+        <v>95.88059997558594</v>
       </c>
       <c r="B307" t="n">
         <v>95.32899999999999</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>108.923583984375</v>
+        <v>95.62080383300781</v>
       </c>
       <c r="B308" t="n">
         <v>96.803</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>111.8115997314453</v>
+        <v>96.37115478515625</v>
       </c>
       <c r="B309" t="n">
         <v>98.179</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>114.10498046875</v>
+        <v>98.16169738769531</v>
       </c>
       <c r="B310" t="n">
         <v>98.867</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>115.6824722290039</v>
+        <v>100.5542907714844</v>
       </c>
       <c r="B311" t="n">
         <v>98.474</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>116.4087066650391</v>
+        <v>103.0150909423828</v>
       </c>
       <c r="B312" t="n">
         <v>98.96599999999999</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>116.626335144043</v>
+        <v>105.1358795166016</v>
       </c>
       <c r="B313" t="n">
         <v>100.047</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>116.3394622802734</v>
+        <v>106.5320129394531</v>
       </c>
       <c r="B314" t="n">
         <v>101.816</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>115.1302032470703</v>
+        <v>106.7739410400391</v>
       </c>
       <c r="B315" t="n">
         <v>102.11</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>112.8539581298828</v>
+        <v>105.6050109863281</v>
       </c>
       <c r="B316" t="n">
         <v>102.012</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>109.7882232666016</v>
+        <v>103.2618942260742</v>
       </c>
       <c r="B317" t="n">
         <v>101.816</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>106.5818252563477</v>
+        <v>100.2263031005859</v>
       </c>
       <c r="B318" t="n">
         <v>104.666</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>103.93603515625</v>
+        <v>96.98055267333984</v>
       </c>
       <c r="B319" t="n">
         <v>107.516</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>102.0290908813477</v>
+        <v>94.11936950683594</v>
       </c>
       <c r="B320" t="n">
         <v>111.25</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>100.6979522705078</v>
+        <v>92.17301940917969</v>
       </c>
       <c r="B321" t="n">
         <v>113.412</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>100.6979522705078</v>
+        <v>91.24935150146484</v>
       </c>
       <c r="B322" t="n">
         <v>113.412</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>98.95672607421875</v>
+        <v>91.31460571289062</v>
       </c>
       <c r="B323" t="n">
         <v>116.459</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>97.49014282226562</v>
+        <v>92.34098052978516</v>
       </c>
       <c r="B324" t="n">
         <v>119.112</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>96.81620788574219</v>
+        <v>94.10128021240234</v>
       </c>
       <c r="B325" t="n">
         <v>122.159</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>97.00279235839844</v>
+        <v>95.91239929199219</v>
       </c>
       <c r="B326" t="n">
         <v>124.616</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>97.39732360839844</v>
+        <v>97.037841796875</v>
       </c>
       <c r="B327" t="n">
         <v>126.09</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>98.28063201904297</v>
+        <v>97.17938995361328</v>
       </c>
       <c r="B328" t="n">
         <v>126.188</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>99.23247528076172</v>
+        <v>96.35916900634766</v>
       </c>
       <c r="B329" t="n">
         <v>126.188</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>100.598388671875</v>
+        <v>94.83934020996094</v>
       </c>
       <c r="B330" t="n">
         <v>125.107</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>101.9790802001953</v>
+        <v>93.282958984375</v>
       </c>
       <c r="B331" t="n">
         <v>122.061</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>102.5483016967773</v>
+        <v>92.44702911376953</v>
       </c>
       <c r="B332" t="n">
         <v>118.326</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>103.9679260253906</v>
+        <v>92.61495971679688</v>
       </c>
       <c r="B333" t="n">
         <v>114.788</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>105.4853210449219</v>
+        <v>93.51118469238281</v>
       </c>
       <c r="B334" t="n">
         <v>111.545</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>106.2768707275391</v>
+        <v>94.79517364501953</v>
       </c>
       <c r="B335" t="n">
         <v>108.793</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>107.0818939208984</v>
+        <v>96.29907989501953</v>
       </c>
       <c r="B336" t="n">
         <v>104.862</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>106.9134292602539</v>
+        <v>97.90042114257812</v>
       </c>
       <c r="B337" t="n">
         <v>99.06399999999999</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>107.2055206298828</v>
+        <v>99.35920715332031</v>
       </c>
       <c r="B338" t="n">
         <v>93.56</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>106.9564056396484</v>
+        <v>100.5031127929688</v>
       </c>
       <c r="B339" t="n">
         <v>88.45</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>106.983528137207</v>
+        <v>101.3123474121094</v>
       </c>
       <c r="B340" t="n">
         <v>85.501</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>105.9387359619141</v>
+        <v>101.7449645996094</v>
       </c>
       <c r="B341" t="n">
         <v>83.045</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>104.4881896972656</v>
+        <v>101.8473587036133</v>
       </c>
       <c r="B342" t="n">
         <v>81.17700000000001</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>102.5083923339844</v>
+        <v>101.8480072021484</v>
       </c>
       <c r="B343" t="n">
         <v>79.212</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>100.6421661376953</v>
+        <v>102.0359039306641</v>
       </c>
       <c r="B344" t="n">
         <v>77.639</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>98.54611206054688</v>
+        <v>102.6651000976562</v>
       </c>
       <c r="B345" t="n">
         <v>78.032</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>96.90581512451172</v>
+        <v>103.8732757568359</v>
       </c>
       <c r="B346" t="n">
         <v>80.096</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>95.92588043212891</v>
+        <v>105.5459976196289</v>
       </c>
       <c r="B347" t="n">
         <v>83.143</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>96.11325073242188</v>
+        <v>107.4871063232422</v>
       </c>
       <c r="B348" t="n">
         <v>86.09099999999999</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>96.6943359375</v>
+        <v>109.4658889770508</v>
       </c>
       <c r="B349" t="n">
         <v>88.548</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>97.74072265625</v>
+        <v>111.2948608398438</v>
       </c>
       <c r="B350" t="n">
         <v>91.202</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>98.72528839111328</v>
+        <v>112.8202819824219</v>
       </c>
       <c r="B351" t="n">
         <v>93.855</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>99.90958404541016</v>
+        <v>113.9205322265625</v>
       </c>
       <c r="B352" t="n">
         <v>97.688</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>100.7811737060547</v>
+        <v>114.6261520385742</v>
       </c>
       <c r="B353" t="n">
         <v>100.931</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>100.5257263183594</v>
+        <v>114.9400405883789</v>
       </c>
       <c r="B354" t="n">
         <v>104.174</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>99.24211120605469</v>
+        <v>114.7611694335938</v>
       </c>
       <c r="B355" t="n">
         <v>106.336</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>97.11671447753906</v>
+        <v>113.9955596923828</v>
       </c>
       <c r="B356" t="n">
         <v>109.186</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>95.36891174316406</v>
+        <v>112.6548843383789</v>
       </c>
       <c r="B357" t="n">
         <v>111.25</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>93.91598510742188</v>
+        <v>110.8161468505859</v>
       </c>
       <c r="B358" t="n">
         <v>113.707</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>93.78539276123047</v>
+        <v>108.5403442382812</v>
       </c>
       <c r="B359" t="n">
         <v>115.574</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>94.49375915527344</v>
+        <v>105.8717880249023</v>
       </c>
       <c r="B360" t="n">
         <v>117.835</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>95.74800109863281</v>
+        <v>102.9124298095703</v>
       </c>
       <c r="B361" t="n">
         <v>119.211</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>97.9200439453125</v>
+        <v>99.88768005371094</v>
       </c>
       <c r="B362" t="n">
         <v>119.997</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>100.2706146240234</v>
+        <v>97.09245300292969</v>
       </c>
       <c r="B363" t="n">
         <v>119.506</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>101.8222274780273</v>
+        <v>94.67246246337891</v>
       </c>
       <c r="B364" t="n">
         <v>116.754</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>103.3462982177734</v>
+        <v>92.57913970947266</v>
       </c>
       <c r="B365" t="n">
         <v>114.395</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>103.8003540039062</v>
+        <v>90.73131561279297</v>
       </c>
       <c r="B366" t="n">
         <v>112.036</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>104.0360870361328</v>
+        <v>89.14749145507812</v>
       </c>
       <c r="B367" t="n">
         <v>112.823</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>104.2156219482422</v>
+        <v>87.83335113525391</v>
       </c>
       <c r="B368" t="n">
         <v>114.1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>103.4094390869141</v>
+        <v>86.86750030517578</v>
       </c>
       <c r="B369" t="n">
         <v>115.673</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>102.7999801635742</v>
+        <v>86.37667846679688</v>
       </c>
       <c r="B370" t="n">
         <v>115.181</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>102.4341125488281</v>
+        <v>86.38180541992188</v>
       </c>
       <c r="B371" t="n">
         <v>115.083</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>102.182487487793</v>
+        <v>86.84632873535156</v>
       </c>
       <c r="B372" t="n">
         <v>116.262</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>102.0077209472656</v>
+        <v>87.79754638671875</v>
       </c>
       <c r="B373" t="n">
         <v>116.557</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>101.8051528930664</v>
+        <v>89.27217864990234</v>
       </c>
       <c r="B374" t="n">
         <v>116.655</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>101.5103225708008</v>
+        <v>91.14772033691406</v>
       </c>
       <c r="B375" t="n">
         <v>113.904</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>100.8817977905273</v>
+        <v>93.18331909179688</v>
       </c>
       <c r="B376" t="n">
         <v>109.579</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>101.4420623779297</v>
+        <v>95.15129089355469</v>
       </c>
       <c r="B377" t="n">
         <v>103.388</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>102.2295837402344</v>
+        <v>96.84834289550781</v>
       </c>
       <c r="B378" t="n">
         <v>97.491</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>103.6173706054688</v>
+        <v>98.16452026367188</v>
       </c>
       <c r="B379" t="n">
         <v>92.676</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>104.8703918457031</v>
+        <v>99.09630584716797</v>
       </c>
       <c r="B380" t="n">
         <v>89.334</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>106.3984527587891</v>
+        <v>99.64320373535156</v>
       </c>
       <c r="B381" t="n">
         <v>86.779</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>108.1239318847656</v>
+        <v>99.72891235351562</v>
       </c>
       <c r="B382" t="n">
         <v>84.81399999999999</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>107.9263153076172</v>
+        <v>99.22842407226562</v>
       </c>
       <c r="B383" t="n">
         <v>84.224</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>106.9633941650391</v>
+        <v>98.26199340820312</v>
       </c>
       <c r="B384" t="n">
         <v>84.126</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>104.8528594970703</v>
+        <v>97.39432525634766</v>
       </c>
       <c r="B385" t="n">
         <v>85.501</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>102.6066360473633</v>
+        <v>96.73170471191406</v>
       </c>
       <c r="B386" t="n">
         <v>87.074</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>100.4067535400391</v>
+        <v>95.91917419433594</v>
       </c>
       <c r="B387" t="n">
         <v>88.941</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>98.38832855224609</v>
+        <v>94.79540252685547</v>
       </c>
       <c r="B388" t="n">
         <v>91.202</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>96.73619079589844</v>
+        <v>93.70706939697266</v>
       </c>
       <c r="B389" t="n">
         <v>93.953</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>96.10794067382812</v>
+        <v>93.17441558837891</v>
       </c>
       <c r="B390" t="n">
         <v>96.607</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>96.2061767578125</v>
+        <v>93.27823638916016</v>
       </c>
       <c r="B391" t="n">
         <v>98.96599999999999</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>96.96623229980469</v>
+        <v>93.89201354980469</v>
       </c>
       <c r="B392" t="n">
         <v>101.521</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>98.08370971679688</v>
+        <v>94.8592529296875</v>
       </c>
       <c r="B393" t="n">
         <v>104.469</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>99.41340637207031</v>
+        <v>95.92098999023438</v>
       </c>
       <c r="B394" t="n">
         <v>107.417</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>100.815185546875</v>
+        <v>96.74708557128906</v>
       </c>
       <c r="B395" t="n">
         <v>111.054</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>102.0345458984375</v>
+        <v>97.11404418945312</v>
       </c>
       <c r="B396" t="n">
         <v>114.886</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>103.395622253418</v>
+        <v>97.01895141601562</v>
       </c>
       <c r="B397" t="n">
         <v>118.13</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>105.0068817138672</v>
+        <v>96.60027313232422</v>
       </c>
       <c r="B398" t="n">
         <v>121.176</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>106.4109191894531</v>
+        <v>96.01383972167969</v>
       </c>
       <c r="B399" t="n">
         <v>122.356</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>107.3753967285156</v>
+        <v>95.36878967285156</v>
       </c>
       <c r="B400" t="n">
         <v>121.275</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>108.6336364746094</v>
+        <v>94.86366271972656</v>
       </c>
       <c r="B401" t="n">
         <v>118.719</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>108.6758804321289</v>
+        <v>94.5943603515625</v>
       </c>
       <c r="B402" t="n">
         <v>114.985</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>109.5346984863281</v>
+        <v>94.49238586425781</v>
       </c>
       <c r="B403" t="n">
         <v>110.661</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>109.6817474365234</v>
+        <v>94.54544067382812</v>
       </c>
       <c r="B404" t="n">
         <v>109.186</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>110.5176315307617</v>
+        <v>94.79838562011719</v>
       </c>
       <c r="B405" t="n">
         <v>109.579</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>111.4825897216797</v>
+        <v>95.22655487060547</v>
       </c>
       <c r="B406" t="n">
         <v>111.545</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>112.4736938476562</v>
+        <v>95.66045379638672</v>
       </c>
       <c r="B407" t="n">
         <v>114.1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>112.8364410400391</v>
+        <v>96.01469421386719</v>
       </c>
       <c r="B408" t="n">
         <v>119.702</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>112.6620483398438</v>
+        <v>96.45590209960938</v>
       </c>
       <c r="B409" t="n">
         <v>125.599</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>112.2591552734375</v>
+        <v>97.17176818847656</v>
       </c>
       <c r="B410" t="n">
         <v>131.102</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>111.0409088134766</v>
+        <v>98.18556213378906</v>
       </c>
       <c r="B411" t="n">
         <v>134.247</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>108.9137573242188</v>
+        <v>99.34438323974609</v>
       </c>
       <c r="B412" t="n">
         <v>134.542</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>106.0036849975586</v>
+        <v>100.6448211669922</v>
       </c>
       <c r="B413" t="n">
         <v>130.513</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>102.3655395507812</v>
+        <v>102.1731872558594</v>
       </c>
       <c r="B414" t="n">
         <v>125.009</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>99.02580261230469</v>
+        <v>103.8015823364258</v>
       </c>
       <c r="B415" t="n">
         <v>119.997</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>95.42588806152344</v>
+        <v>105.1433258056641</v>
       </c>
       <c r="B416" t="n">
         <v>113.314</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>93.11562347412109</v>
+        <v>105.9487609863281</v>
       </c>
       <c r="B417" t="n">
         <v>106.238</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>92.27464294433594</v>
+        <v>106.29345703125</v>
       </c>
       <c r="B418" t="n">
         <v>97.59</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>92.43173980712891</v>
+        <v>106.3270111083984</v>
       </c>
       <c r="B419" t="n">
         <v>91.202</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>95.31494140625</v>
+        <v>106.0593414306641</v>
       </c>
       <c r="B420" t="n">
         <v>85.30500000000001</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>98.79002380371094</v>
+        <v>105.5126495361328</v>
       </c>
       <c r="B421" t="n">
         <v>80.68600000000001</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>103.7773666381836</v>
+        <v>104.7954711914062</v>
       </c>
       <c r="B422" t="n">
         <v>78.131</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>108.3939666748047</v>
+        <v>103.9077911376953</v>
       </c>
       <c r="B423" t="n">
         <v>77.541</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>112.5152893066406</v>
+        <v>102.8802261352539</v>
       </c>
       <c r="B424" t="n">
         <v>78.524</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>115.5677795410156</v>
+        <v>101.7028350830078</v>
       </c>
       <c r="B425" t="n">
         <v>79.703</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>117.053466796875</v>
+        <v>100.625862121582</v>
       </c>
       <c r="B426" t="n">
         <v>81.47199999999999</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>116.7821807861328</v>
+        <v>99.80790710449219</v>
       </c>
       <c r="B427" t="n">
         <v>84.027</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>114.6711654663086</v>
+        <v>99.43072509765625</v>
       </c>
       <c r="B428" t="n">
         <v>89.039</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>111.4167175292969</v>
+        <v>99.51424407958984</v>
       </c>
       <c r="B429" t="n">
         <v>96.017</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>108.5580139160156</v>
+        <v>99.97116088867188</v>
       </c>
       <c r="B430" t="n">
         <v>103.683</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>105.8062896728516</v>
+        <v>100.6125640869141</v>
       </c>
       <c r="B431" t="n">
         <v>111.545</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>104.0588302612305</v>
+        <v>101.2105178833008</v>
       </c>
       <c r="B432" t="n">
         <v>118.621</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>101.9146499633789</v>
+        <v>101.7550964355469</v>
       </c>
       <c r="B433" t="n">
         <v>124.518</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>101.3248748779297</v>
+        <v>102.0650405883789</v>
       </c>
       <c r="B434" t="n">
         <v>129.628</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>101.2553634643555</v>
+        <v>101.9207153320312</v>
       </c>
       <c r="B435" t="n">
         <v>133.854</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>102.6708297729492</v>
+        <v>101.1991729736328</v>
       </c>
       <c r="B436" t="n">
         <v>136.704</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>103.8048858642578</v>
+        <v>99.84341430664062</v>
       </c>
       <c r="B437" t="n">
         <v>136.999</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>104.8447723388672</v>
+        <v>98.21703338623047</v>
       </c>
       <c r="B438" t="n">
         <v>135.328</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>106.1037292480469</v>
+        <v>96.84907531738281</v>
       </c>
       <c r="B439" t="n">
         <v>131.692</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>107.4039001464844</v>
+        <v>96.06840515136719</v>
       </c>
       <c r="B440" t="n">
         <v>128.056</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>108.6011962890625</v>
+        <v>95.88276672363281</v>
       </c>
       <c r="B441" t="n">
         <v>122.847</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>109.857063293457</v>
+        <v>96.18660736083984</v>
       </c>
       <c r="B442" t="n">
         <v>117.933</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>109.5416641235352</v>
+        <v>96.89202880859375</v>
       </c>
       <c r="B443" t="n">
         <v>112.43</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>108.0568542480469</v>
+        <v>97.82571411132812</v>
       </c>
       <c r="B444" t="n">
         <v>108.105</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>106.6633148193359</v>
+        <v>98.64671325683594</v>
       </c>
       <c r="B445" t="n">
         <v>102.897</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>104.2974700927734</v>
+        <v>99.25679016113281</v>
       </c>
       <c r="B446" t="n">
         <v>99.16200000000001</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>101.8019714355469</v>
+        <v>99.76576232910156</v>
       </c>
       <c r="B447" t="n">
         <v>97</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>99.78263092041016</v>
+        <v>100.2319641113281</v>
       </c>
       <c r="B448" t="n">
         <v>96.902</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>99.37994384765625</v>
+        <v>100.6472091674805</v>
       </c>
       <c r="B449" t="n">
         <v>100.636</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>99.36357116699219</v>
+        <v>100.7910461425781</v>
       </c>
       <c r="B450" t="n">
         <v>105.059</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>100.6258392333984</v>
+        <v>100.7143020629883</v>
       </c>
       <c r="B451" t="n">
         <v>111.25</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>101.4833908081055</v>
+        <v>100.7007751464844</v>
       </c>
       <c r="B452" t="n">
         <v>115.869</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>103.0970230102539</v>
+        <v>100.9062576293945</v>
       </c>
       <c r="B453" t="n">
         <v>122.749</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>105.3400192260742</v>
+        <v>101.2686386108398</v>
       </c>
       <c r="B454" t="n">
         <v>128.252</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>107.3274536132812</v>
+        <v>101.6580657958984</v>
       </c>
       <c r="B455" t="n">
         <v>132.085</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>110.0295257568359</v>
+        <v>101.948486328125</v>
       </c>
       <c r="B456" t="n">
         <v>133.166</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>113.0509948730469</v>
+        <v>102.0879974365234</v>
       </c>
       <c r="B457" t="n">
         <v>131.79</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>116.3705902099609</v>
+        <v>102.1393203735352</v>
       </c>
       <c r="B458" t="n">
         <v>127.269</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>120.3429641723633</v>
+        <v>102.0752716064453</v>
       </c>
       <c r="B459" t="n">
         <v>123.044</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>123.9668273925781</v>
+        <v>102.1706848144531</v>
       </c>
       <c r="B460" t="n">
         <v>119.407</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>128.5618438720703</v>
+        <v>102.3673934936523</v>
       </c>
       <c r="B461" t="n">
         <v>116.459</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>132.9221038818359</v>
+        <v>102.7773284912109</v>
       </c>
       <c r="B462" t="n">
         <v>114.1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>135.5271759033203</v>
+        <v>103.5142593383789</v>
       </c>
       <c r="B463" t="n">
         <v>112.724</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>135.8907318115234</v>
+        <v>104.6401214599609</v>
       </c>
       <c r="B464" t="n">
         <v>111.938</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>133.9258422851562</v>
+        <v>106.0331268310547</v>
       </c>
       <c r="B465" t="n">
         <v>112.135</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>130.4630737304688</v>
+        <v>107.6386337280273</v>
       </c>
       <c r="B466" t="n">
         <v>113.117</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>125.0202789306641</v>
+        <v>109.2417526245117</v>
       </c>
       <c r="B467" t="n">
         <v>113.707</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>118.6216125488281</v>
+        <v>110.5785980224609</v>
       </c>
       <c r="B468" t="n">
         <v>113.609</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>112.4232025146484</v>
+        <v>111.4241790771484</v>
       </c>
       <c r="B469" t="n">
         <v>112.724</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>107.3703002929688</v>
+        <v>111.6713943481445</v>
       </c>
       <c r="B470" t="n">
         <v>110.955</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>104.2066116333008</v>
+        <v>111.4106597900391</v>
       </c>
       <c r="B471" t="n">
         <v>109.678</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>103.4045104980469</v>
+        <v>110.8365631103516</v>
       </c>
       <c r="B472" t="n">
         <v>108.793</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>104.9215850830078</v>
+        <v>110.1470489501953</v>
       </c>
       <c r="B473" t="n">
         <v>107.712</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>108.6661529541016</v>
+        <v>109.5818481445312</v>
       </c>
       <c r="B474" t="n">
         <v>106.14</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>114.154052734375</v>
+        <v>109.29443359375</v>
       </c>
       <c r="B475" t="n">
         <v>104.076</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>119.6767425537109</v>
+        <v>109.4301300048828</v>
       </c>
       <c r="B476" t="n">
         <v>102.798</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>124.8075790405273</v>
+        <v>110.0360565185547</v>
       </c>
       <c r="B477" t="n">
         <v>102.798</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>127.8136672973633</v>
+        <v>110.9186859130859</v>
       </c>
       <c r="B478" t="n">
         <v>102.7</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>128.8842926025391</v>
+        <v>111.6706390380859</v>
       </c>
       <c r="B479" t="n">
         <v>102.405</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>127.3864288330078</v>
+        <v>111.9441604614258</v>
       </c>
       <c r="B480" t="n">
         <v>101.816</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>124.5336608886719</v>
+        <v>111.6460418701172</v>
       </c>
       <c r="B481" t="n">
         <v>102.307</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>120.6370010375977</v>
+        <v>110.9686431884766</v>
       </c>
       <c r="B482" t="n">
         <v>104.076</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>115.9882507324219</v>
+        <v>109.8896560668945</v>
       </c>
       <c r="B483" t="n">
         <v>105.452</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>112.15771484375</v>
+        <v>108.4847717285156</v>
       </c>
       <c r="B484" t="n">
         <v>107.614</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>109.3980865478516</v>
+        <v>106.8706665039062</v>
       </c>
       <c r="B485" t="n">
         <v>108.793</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>108.4150848388672</v>
+        <v>105.1999664306641</v>
       </c>
       <c r="B486" t="n">
         <v>110.562</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>108.4290313720703</v>
+        <v>103.7083282470703</v>
       </c>
       <c r="B487" t="n">
         <v>112.233</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>109.4899749755859</v>
+        <v>102.6163101196289</v>
       </c>
       <c r="B488" t="n">
         <v>113.216</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>110.4052124023438</v>
+        <v>102.0845718383789</v>
       </c>
       <c r="B489" t="n">
         <v>113.511</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>111.9057922363281</v>
+        <v>102.1014862060547</v>
       </c>
       <c r="B490" t="n">
         <v>113.412</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>112.9832458496094</v>
+        <v>102.647216796875</v>
       </c>
       <c r="B491" t="n">
         <v>114.493</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>113.7504425048828</v>
+        <v>103.4697723388672</v>
       </c>
       <c r="B492" t="n">
         <v>116.361</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>114.9210968017578</v>
+        <v>104.3193969726562</v>
       </c>
       <c r="B493" t="n">
         <v>118.621</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>115.2940216064453</v>
+        <v>104.7540054321289</v>
       </c>
       <c r="B494" t="n">
         <v>120.98</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>115.8118896484375</v>
+        <v>104.7789916992188</v>
       </c>
       <c r="B495" t="n">
         <v>122.749</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>116.6286163330078</v>
+        <v>104.4246215820312</v>
       </c>
       <c r="B496" t="n">
         <v>125.599</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>116.4319458007812</v>
+        <v>103.884651184082</v>
       </c>
       <c r="B497" t="n">
         <v>128.449</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>116.1884307861328</v>
+        <v>103.3276672363281</v>
       </c>
       <c r="B498" t="n">
         <v>131.299</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>115.4073638916016</v>
+        <v>102.8881454467773</v>
       </c>
       <c r="B499" t="n">
         <v>134.345</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>114.427116394043</v>
+        <v>102.7803802490234</v>
       </c>
       <c r="B500" t="n">
         <v>133.559</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>112.7731323242188</v>
+        <v>103.1953125</v>
       </c>
       <c r="B501" t="n">
         <v>132.38</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>110.8613433837891</v>
+        <v>104.2279357910156</v>
       </c>
       <c r="B502" t="n">
         <v>129.235</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>110.0817489624023</v>
+        <v>105.8850784301758</v>
       </c>
       <c r="B503" t="n">
         <v>125.599</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>109.62841796875</v>
+        <v>108.1560974121094</v>
       </c>
       <c r="B504" t="n">
         <v>120.98</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>110.1136016845703</v>
+        <v>110.8414535522461</v>
       </c>
       <c r="B505" t="n">
         <v>118.523</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>110.3932876586914</v>
+        <v>113.610595703125</v>
       </c>
       <c r="B506" t="n">
         <v>115.968</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>111.1033782958984</v>
+        <v>116.0634918212891</v>
       </c>
       <c r="B507" t="n">
         <v>114.199</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>111.272216796875</v>
+        <v>117.9015197753906</v>
       </c>
       <c r="B508" t="n">
         <v>111.938</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>112.4767684936523</v>
+        <v>119.0125885009766</v>
       </c>
       <c r="B509" t="n">
         <v>111.84</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>113.9457550048828</v>
+        <v>119.2083129882812</v>
       </c>
       <c r="B510" t="n">
         <v>112.921</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>116.2362518310547</v>
+        <v>118.6513290405273</v>
       </c>
       <c r="B511" t="n">
         <v>116.164</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>118.5786285400391</v>
+        <v>117.6628570556641</v>
       </c>
       <c r="B512" t="n">
         <v>119.014</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>121.6257019042969</v>
+        <v>116.222541809082</v>
       </c>
       <c r="B513" t="n">
         <v>121.373</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>126.0415496826172</v>
+        <v>114.4857482910156</v>
       </c>
       <c r="B514" t="n">
         <v>122.257</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>131.253662109375</v>
+        <v>112.8637542724609</v>
       </c>
       <c r="B515" t="n">
         <v>122.159</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>136.7548828125</v>
+        <v>112.0487365722656</v>
       </c>
       <c r="B516" t="n">
         <v>123.83</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>141.3475952148438</v>
+        <v>112.6825408935547</v>
       </c>
       <c r="B517" t="n">
         <v>126.188</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>144.6382446289062</v>
+        <v>115.6601867675781</v>
       </c>
       <c r="B518" t="n">
         <v>129.235</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>145.9498901367188</v>
+        <v>120.7176666259766</v>
       </c>
       <c r="B519" t="n">
         <v>130.414</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>145.7439880371094</v>
+        <v>127.2501525878906</v>
       </c>
       <c r="B520" t="n">
         <v>131.692</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>144.3676147460938</v>
+        <v>134.3204956054688</v>
       </c>
       <c r="B521" t="n">
         <v>132.183</v>
